--- a/tabular/genus/unc-parvovirinae-refseqs-side-data.xlsx
+++ b/tabular/genus/unc-parvovirinae-refseqs-side-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EEC30C8-F68F-E342-A49B-FECECE511C8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FAD1D7-161E-3247-9F17-80153D149E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{AB1CE697-9EAB-8440-9FB9-1DF90C0D9C56}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E402CC6C-68A2-4441-AB62-FA7482E95718}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,55 +615,55 @@
       <c r="P1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>47</v>
       </c>
     </row>

--- a/tabular/genus/unc-parvovirinae-refseqs-side-data.xlsx
+++ b/tabular/genus/unc-parvovirinae-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FAD1D7-161E-3247-9F17-80153D149E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A1E7D-7732-4845-AA98-FC484E003D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{AB1CE697-9EAB-8440-9FB9-1DF90C0D9C56}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
-  <si>
-    <t>GCTTGCGTGTTGTTGGCTAAGTGGGCCCGACGCGAGTGCTGTATGCGTAACACACTGTGCATGTGGGGCATGTCCCACTCGGGCAAAACCACAATTGTCAACGCCATCGCCAGCTGTTGTCTCTCTGTGGGACGCATCAATCACAACAACAAAAATTTTCCCTATAATAATTGTGCCAACAAGCTGCTGGTGCTGTGGGAAGAAGGCGTCATGACCAACACCACATTGCCCCAAGGCTAAGAGATTTTGGCCGGGTCCAAAACACACATCGACCAAAAGGGCAAGTGCTCGGTCGAGATCGGTGGGTGCCCAGTGATTGTCGCGGCCAACAAAGACGTACGCCCCGTGCACAACGGCAATACAGTGTCGACCGAAGATTACGACGCCATCAACGACCGCTTGTGGGCGTACAACCATTCATACAATGCGCCCATCCCTTTGGCAGAAGACGACGAAGACGGACTGCCAGAGAACCTGGCGGAAGGGGTCCCAGAGTGTTACGCCCACATCTCCGAGGCCACAGGCAGCCTCAACGGTGCCCGCATCTCCGAAGCCGGCCGCCGGGCCTGCCCCGGCACCTCCGGCTTCTCCAGGCCCCCCGAATTGTTCCACTTCATGCTCATCTCCAGTAAATATCACGTCTGAAAACAGCACCCAAGTCCCCCTTGCCTCTCTTCCTCCTGCCTCTCTTCCCCTCGCTTTGACGCCTTGTTTCTTGACCTCTTGCCCGCCTTTGCACACGCCCTAGCCACTAAAGTGTCTCAGTAGGTAGGATGGCGGAGGTGGGCAGAGCCAAATGGGCCAGACAGATGGGCCATGGAATGAGGCCGAGATATGCTGCGGAGTTGGCTCAGTGCCTAGTGTTGACGTCACATCCCGTTGTGGTGACGTCACTTCCAGTGTTGCAGTTGATACTAGTATTAGTAAAATGACTATGATAATACTAATACTAATTTTTACTACACAAACAATTTAAAAAGAAATAAATTGTCTATTGAATGCTAAAGAAATGTGGCAACGTTCACACTAGAGTGTGATGCGAATTGAGACACGGGTGCACAGTGGCGCGTGGGGTTGCATCTTCTGCTCAGCCATCCCTCATCCACACTGAGTGAGTCTCTCTTGTGACCCTGGATGTGCGAGTTTGATGAATGTGGCACATCTGCCCTCCTGAACCACTGGGACTCCGTCTGGGAGGCCCCTCAGCCTGGAAGTAATGGCCACTGTTCTACACCACTGACACATAATCACATACACTCAACGACTTTGTGATGGCACACATCAGCTTTTAGCTCATTTATATTTGTGGTGACAAATGATTATATGTCAGTGTGGATAGAGGACAGAAGCTAGCCACTGCTGGATTACACTCATGTGACACACACCTGCCTCCTGCTGTCTATCTGTTGTGGGAACAACTTGCTGATATCACCCATGTTCATGTACGCCTTTTTTAATAAGTAACCATCAACATTTTAGTTGCGTGTTATACAATGATGTAATGTCATTAACGTCAGAGCTCACTTTATAGCTACGTAGGAGTGGATCTTCGCTGGTCCATGACTGTAGTCTGCTGTTTGAAACGTGTACAGTAGCTCAAATTACCGCTAAACAAATGTGATTCTCACTTCAATTTGTTCCTGCCTGAGAGGGGTGGGGCTTGCACGAGGTCCTGCTAGGGTTGCTGGGAAATGTCGCTGTCACTTTCTCCTGAAGGCAGTCATGCAGGTGCCCGAGTTACCTGTTCATCACTGAGATAATTAATGTGTACAAGAGGCTGCTAATTGCACTTTTCACCAATGATTTATGGGATTTGTAATAGAGGGACAGCGGGGGAAGTGTGTGTGTGTGTGTGTGTGTGTGAGAGAGAGAATCTGTTTACAATCTTGTGGGTGAGTACAGCTGGGTGAGGAGACATGATTGATGAAGGCAGCCCCCCCACAATGTTAGAACCAGGTTGGCCTCACGATCATCGATGGCCACCTTATGCATAACACCAGCTAACCGGATAAACTGAAAAGAGAAGGCCTCGAACTGTCCTTCATTGTCTGAACCTTTTTCTAAAGAATCAAGATGACCACCTTCTTAATTTGACTCTGCGGGCCAGATTAAATTGTTCATGTGCCACATGTGCCCCAGGGCCTTAGATTGACCATCTCTGGTCGAGACAGGCTTTTCAATAGATTNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNTTTTTTTTTTCCCCAATCTCCCCCCCCCCCCCCCCCCGCCCGCCCCCCTTTTTCGTTTTTCCCCCAAAAAAAATAAAAATCCTATAAAAAAAAGTATGCTCCCTGCAATGAAAGCCAAGTGCTAGGGGTAAAAAACAAAATAAAAGACCTTTCACCCCAGCATTTATTAATGATTTTAATGGCAGCAGGGGTTGTCACAGGAGATATCTGACAACCCGTAAATCAAACTAAAATTACAGGGGGGGGGGGGCAGCCGGCGGAGCAAAAACCTTTTTTTTTTTCTTTTACCCTGCTCAACTTCTTCCTTTTAACTACCATCACTCGTCTGATTTATGGAGTGTACAGATCATCCATGCAGAGTCAGCCGTTTGAAGCAGCGACAGGGGACTTTTCACCCTAAACACTTCCTCATCTCTGCCACACCAACACACCCTCAAGGTCATGACTGCTTGACAAACTACCCTCGGCTTTATCCTACCTCTCAACCAACATACACAGGGTTTTTTTTTTTTTTTTTTTTTTTTTTTAACCACTGAACCGGCAGAGCTGTTTAATTGACCCAAGATGAAATGTAGTGTGAAATTTGTGTTTTTCATTCACCTGCAAGGATTACTTAACACTCACTTAAACACAACATGGATACTTAGCCATATGTCACTCATCTCTTTCTGTTTAAACTGATTATACCGGCCAATTCACTCTAAATAAACAACAACAGCTGCGATTATGATGCATGCGTACACAAGGTTTCCAGCTACTGATTAGAACAGTCGCTGAGACCTGTGTTAGGTTTTGTTGCTAAATAACATGTAAAATAGAACCAGGAAACTTGTGTCTGTAACTTGTATCACATGATTCCTCTCCAGCAGGGCGATAATCCTTTCTTTAAAATTAAAACAGAAGCTGACAGAGAAAATTTCCTCGAGTCGGAAACGTACACGTTTGCCGAAGGAATCCCTTGCTCGACAATTGGATGACCAAAGCCATTGCCAAGCAGGGCTACGACTCGAGCTTGCGTGTTGTTGGCTAAGTGGGCCCGACTCGAGTGCTGTATGCGTAACACACTGTGCATGTGGGGCATGTCCCACTCAGGCAAAACCACAATTGTCAACGCCATCGCCAGCTGTTGTCTCTCTGTGGGACGCATCAATCACAACAACAAAAATTTTCCCTATAATAATTGTGCCAACAAGCTGCTGGTGCTGTGGGAAGAAGGCGTCATGACCAACATGCCCCAAGGCTAAGAGATTTTGGCCGGGTCCAAAACACACATCGACCAAAAGGGCAAGTGCTCGGTCGAGATCGGTGGGTGCCCAGTGATTGTCGCGGCCAACAAAGACGTACGCCCCATGCACAACGGCAATACAGTGTCGACCGAAGATTGCGACGCCATCAACCACCGCTTGTGGGCGTACAACCATTCATACAATGCGCCCATCCCTTTGGCAGAAGACGACGAAGACGGACTGCCAGAGAACCTGGCGGAAGGGGTCCCAGAGTGTTACGCCCACATCTCCGAGGCCAGAGGCAGCCTCAACGGTGCCCGCATCTCCGAAGCCGGCCGCCGG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>VP[unclassified.XX-Tetraodon(-)]-VP[unclassified.XX-Tetraodon(-)]</t>
   </si>
@@ -175,9 +172,6 @@
   </si>
   <si>
     <t>sequence_length</t>
-  </si>
-  <si>
-    <t>sequence</t>
   </si>
 </sst>
 </file>
@@ -553,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E402CC6C-68A2-4441-AB62-FA7482E95718}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,152 +560,149 @@
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <v>94956103</v>
@@ -720,7 +711,7 @@
         <v>94959906</v>
       </c>
       <c r="T2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>760</v>
@@ -756,13 +747,10 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>3804</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/genus/unc-parvovirinae-refseqs-side-data.xlsx
+++ b/tabular/genus/unc-parvovirinae-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA0D07-E54F-4C47-A329-11943B5635E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7845B24-312C-2F4A-A26C-69813AF28A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{AB1CE697-9EAB-8440-9FB9-1DF90C0D9C56}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
